--- a/data/case1/15/P2_14.xlsx
+++ b/data/case1/15/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.044464104359889234</v>
+        <v>0.078222337956418642</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999989796906164</v>
+        <v>-0.0099999997733988266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999989927509461</v>
+        <v>-0.0089999997769059092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2839826917718149</v>
+        <v>0.28399534826292694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999990278853943</v>
+        <v>-0.0059999997861828192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990020855876</v>
+        <v>-0.0059999997807480554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998835421806</v>
+        <v>-0.019999999738869789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998831335297</v>
+        <v>-0.019999999736896257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999989943211318</v>
+        <v>-0.0059999997762254509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999989937935538</v>
+        <v>-0.005999999774722653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999990114433785</v>
+        <v>-0.0044999997794796798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999989941355025</v>
+        <v>0.0058937587193352847</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999989986421198</v>
+        <v>-0.0059999997731692289</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998930331657</v>
+        <v>-0.011999999755131441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990048886787</v>
+        <v>-0.0059999997726984944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.054022752683073438</v>
+        <v>0.019113679549294105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990068622111</v>
+        <v>-0.0059999997718032105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999998970693035</v>
+        <v>-0.0089999997627048245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027507517974688867</v>
+        <v>-0.0089999997755532135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999989821105686</v>
+        <v>-0.070676826763985012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999989808191572</v>
+        <v>-0.0089999997678029686</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999989799185443</v>
+        <v>-0.008999999767531186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999989813538406</v>
+        <v>-0.0089999997742031823</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.067092327840224009</v>
+        <v>-0.06695028898810218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998562132212</v>
+        <v>-0.041999999670036203</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999989991510461</v>
+        <v>-0.0059999997804709437</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999989950645372</v>
+        <v>-0.0059999997800526117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999989794290443</v>
+        <v>-0.0059999997785666892</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998898499342</v>
+        <v>-0.0119999997600857</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998799719698</v>
+        <v>0.033820654350907642</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.01621551460402415</v>
+        <v>-0.014999999748877002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.031024868633935831</v>
+        <v>-0.020999999730807239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999989569758938</v>
+        <v>-0.0059999997748310108</v>
       </c>
     </row>
   </sheetData>
